--- a/diploms/hod-back/_Resources/Export/Кадровая справка направления №21017.xlsx
+++ b/diploms/hod-back/_Resources/Export/Кадровая справка направления №21017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unic\Diplom\diploms\hod-back\_Resources\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A5CDE-B17C-4C33-8208-8092C0F62B38}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD1F83F-5FFF-4C04-9D51-226651A8F438}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="155">
   <si>
     <t>Справка</t>
   </si>
@@ -529,12 +529,30 @@
   <si>
     <t>Высшее профессиональное, вычислительная техника, магистр гуманитарных наук</t>
   </si>
+  <si>
+    <t xml:space="preserve">Удостоверение о повышении квалификации № 110400000988 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удостоверение о повышении квалификации № 110400010988 от 17.06.2018, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удостоверение о повышении квалификации № 110400305978 от 17.10.2019, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удостоверение о повышении квалификации № 110400058031 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удостоверение о повышении квалификации № 110400078931 от 27.04.2017, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удостоверение о повышении квалификации № 110400789015 от 30.04.2019, «Информационные технологии в обучении. Преподаватель дистанционного обучения». 180 часов, ФГБОУ ВО «УГТУ». </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,12 +646,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -846,6 +858,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
@@ -855,7 +870,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,18 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1176,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1198,153 +1210,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
       <c r="P1"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
       <c r="P4"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="25" t="s">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="28" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="26"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1369,7 +1381,7 @@
       <c r="O8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="27"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -1390,7 +1402,9 @@
       <c r="F9" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="H9" s="10">
         <f>N9+N9</f>
         <v>329.2</v>
@@ -1439,7 +1453,9 @@
       <c r="F10" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="H10" s="10">
         <f>N10+N10</f>
         <v>548</v>
@@ -1488,7 +1504,9 @@
       <c r="F11" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="H11" s="10">
         <f>N11+N11</f>
         <v>364</v>
@@ -1519,30 +1537,32 @@
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="23">
+      <c r="G12" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="24">
         <f>N12+N13+N13</f>
         <v>106.6</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="24">
         <f>O12+O13</f>
         <v>0.08</v>
       </c>
@@ -1568,17 +1588,17 @@
       <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="10">
         <v>14</v>
       </c>
@@ -1619,7 +1639,9 @@
       <c r="F14" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="H14" s="10">
         <f>N14+N14</f>
         <v>60</v>
@@ -1668,7 +1690,9 @@
       <c r="F15" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="H15" s="10">
         <f>N15+N15</f>
         <v>302</v>
@@ -1699,30 +1723,32 @@
       <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="24">
         <v>7</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="G16" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="24">
         <f>N16+N17+N18+N19+N19</f>
         <v>386.6</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="24">
         <f>O16+O17+O18+O19</f>
         <v>0.34</v>
       </c>
@@ -1748,17 +1774,17 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="10">
         <v>20</v>
       </c>
@@ -1781,17 +1807,17 @@
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="10">
         <v>70</v>
       </c>
@@ -1814,17 +1840,17 @@
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="10">
         <v>36</v>
       </c>
@@ -1847,30 +1873,32 @@
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="24">
         <v>8</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23">
+      <c r="G20" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="24">
         <f>N20+N21+N21</f>
         <v>126</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="24">
         <f>O20+O21</f>
         <v>0.14000000000000001</v>
       </c>
@@ -1896,17 +1924,17 @@
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="10">
         <v>0</v>
       </c>
@@ -1947,7 +1975,9 @@
       <c r="F22" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="H22" s="10">
         <f>N22+N22</f>
         <v>128</v>
@@ -1996,7 +2026,9 @@
       <c r="F23" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="H23" s="10">
         <f>N23+N23</f>
         <v>236</v>
@@ -2045,7 +2077,9 @@
       <c r="F24" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="H24" s="10">
         <f>N24+N24</f>
         <v>84</v>
@@ -2094,7 +2128,9 @@
       <c r="F25" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="H25" s="10">
         <f>N25+N25</f>
         <v>92.6</v>
@@ -2125,30 +2161,32 @@
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="24">
         <v>13</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23">
+      <c r="G26" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="24">
         <f>N26+N27+N28+N28</f>
         <v>248.89999999999998</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="24">
         <f>O26+O27+O28</f>
         <v>0.21000000000000002</v>
       </c>
@@ -2174,17 +2212,17 @@
       <c r="P26" s="10"/>
     </row>
     <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="10">
         <v>40</v>
       </c>
@@ -2207,17 +2245,17 @@
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="10">
         <v>40</v>
       </c>
@@ -2240,30 +2278,32 @@
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="24">
         <v>14</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23">
+      <c r="G29" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="24">
         <f>N29+N30+N31+N31</f>
         <v>303.2</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="24">
         <f>O29+O30+O31</f>
         <v>0.28000000000000003</v>
       </c>
@@ -2289,17 +2329,17 @@
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="10">
         <v>66</v>
       </c>
@@ -2322,17 +2362,17 @@
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="10">
         <v>30</v>
       </c>
@@ -2373,7 +2413,9 @@
       <c r="F32" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="H32" s="10">
         <f>N32+N32</f>
         <v>76.599999999999994</v>
@@ -2422,7 +2464,9 @@
       <c r="F33" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="H33" s="10">
         <f>N33+N33</f>
         <v>112.6</v>
@@ -2453,30 +2497,32 @@
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+      <c r="A34" s="24">
         <v>17</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23">
+      <c r="G34" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="24">
         <f>N34+N35+N36+N37+N38+N39+N40+N41+N41</f>
         <v>226.30000000000007</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="24">
         <f>O34+O35+O36+O37+O38+O39+O40+O41</f>
         <v>0.21</v>
       </c>
@@ -2502,17 +2548,17 @@
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="10">
         <v>0</v>
       </c>
@@ -2535,17 +2581,17 @@
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="10">
         <v>14</v>
       </c>
@@ -2568,17 +2614,17 @@
       <c r="P36" s="10"/>
     </row>
     <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="10">
         <v>30</v>
       </c>
@@ -2601,17 +2647,17 @@
       <c r="P37" s="10"/>
     </row>
     <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="10">
         <v>0</v>
       </c>
@@ -2634,17 +2680,17 @@
       <c r="P38" s="10"/>
     </row>
     <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="10">
         <v>0</v>
       </c>
@@ -2667,17 +2713,17 @@
       <c r="P39" s="10"/>
     </row>
     <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="10">
         <v>0</v>
       </c>
@@ -2700,17 +2746,17 @@
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="10">
         <v>0</v>
       </c>
@@ -2751,7 +2797,9 @@
       <c r="F42" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="H42" s="10">
         <f>N42+N42</f>
         <v>112.6</v>
@@ -2800,7 +2848,9 @@
       <c r="F43" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="H43" s="10">
         <f>N43+N43</f>
         <v>72.599999999999994</v>
@@ -2831,30 +2881,32 @@
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
+      <c r="A44" s="24">
         <v>20</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23">
+      <c r="G44" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="24">
         <f>N44+N45+N46+N47+N47</f>
         <v>183.8</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="24">
         <f>O44+O45+O46+O47</f>
         <v>0.19</v>
       </c>
@@ -2880,17 +2932,17 @@
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="10">
         <v>18</v>
       </c>
@@ -2913,17 +2965,17 @@
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="10">
         <v>14</v>
       </c>
@@ -2946,17 +2998,17 @@
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
       <c r="J47" s="10">
         <v>7</v>
       </c>
@@ -2979,30 +3031,32 @@
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
+      <c r="A48" s="24">
         <v>21</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23">
+      <c r="G48" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="24">
         <f>N48+N49+N49</f>
         <v>148.6</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="24">
         <f>O48+O49</f>
         <v>0.13999999999999999</v>
       </c>
@@ -3028,17 +3082,17 @@
       <c r="P48" s="10"/>
     </row>
     <row r="49" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="10">
         <v>10</v>
       </c>
@@ -3061,30 +3115,32 @@
       <c r="P49" s="10"/>
     </row>
     <row r="50" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
+      <c r="A50" s="24">
         <v>22</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="24" t="s">
         <v>90</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23">
+      <c r="G50" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" s="24">
         <f>N50+N51+N52+N52</f>
         <v>242.4</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="24">
         <f>O50+O51+O52</f>
         <v>0.21000000000000002</v>
       </c>
@@ -3110,17 +3166,17 @@
       <c r="P50" s="10"/>
     </row>
     <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
       <c r="J51" s="10">
         <v>36</v>
       </c>
@@ -3143,17 +3199,17 @@
       <c r="P51" s="10"/>
     </row>
     <row r="52" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
       <c r="J52" s="10">
         <v>22</v>
       </c>
@@ -3176,30 +3232,32 @@
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
+      <c r="A53" s="24">
         <v>23</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23">
+      <c r="G53" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" s="24">
         <f>N53+N54+N54</f>
         <v>180</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="24">
         <f>O53+O54</f>
         <v>0.13</v>
       </c>
@@ -3225,17 +3283,17 @@
       <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
       <c r="J54" s="10">
         <v>36</v>
       </c>
@@ -3258,30 +3316,32 @@
       <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23">
+      <c r="A55" s="24">
         <v>24</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23">
+      <c r="G55" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H55" s="24">
         <f>N55+N56+N56</f>
         <v>99.8</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="24">
         <f>O55+O56</f>
         <v>6.0000000000000005E-2</v>
       </c>
@@ -3307,17 +3367,17 @@
       <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
       <c r="J56" s="10">
         <v>30</v>
       </c>
@@ -3340,30 +3400,32 @@
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
+      <c r="A57" s="24">
         <v>25</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="34" t="s">
+      <c r="F57" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23">
+      <c r="G57" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" s="24">
         <f>N57+N58+N59+N60+N61+N62+N63+N64+N64</f>
         <v>348.4</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="24">
         <f>O57+O58+O59+O60+O61+O62+O63+O64</f>
         <v>0.36</v>
       </c>
@@ -3389,17 +3451,17 @@
       <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
       <c r="J58" s="10">
         <v>36</v>
       </c>
@@ -3422,17 +3484,17 @@
       <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
       <c r="J59" s="10">
         <v>30</v>
       </c>
@@ -3455,17 +3517,17 @@
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
       <c r="J60" s="10">
         <v>30</v>
       </c>
@@ -3488,17 +3550,17 @@
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
       <c r="J61" s="10">
         <v>34</v>
       </c>
@@ -3521,17 +3583,17 @@
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="10">
         <v>30</v>
       </c>
@@ -3554,17 +3616,17 @@
       <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F63" s="36"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
       <c r="J63" s="10">
         <v>30</v>
       </c>
@@ -3587,17 +3649,17 @@
       <c r="P63" s="10"/>
     </row>
     <row r="64" spans="1:16" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="10">
         <v>2</v>
       </c>
@@ -3638,7 +3700,9 @@
       <c r="F65" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G65" s="10"/>
+      <c r="G65" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="H65" s="10">
         <f>N65+N65</f>
         <v>168</v>
@@ -3669,30 +3733,32 @@
       <c r="P65" s="10"/>
     </row>
     <row r="66" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="A66" s="24">
         <v>27</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="24" t="s">
         <v>111</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F66" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23">
+      <c r="G66" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H66" s="24">
         <f>N66+N67+N67</f>
         <v>122.89999999999999</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="24">
         <f>O66+O67</f>
         <v>0.08</v>
       </c>
@@ -3718,17 +3784,17 @@
       <c r="P66" s="10"/>
     </row>
     <row r="67" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="10">
         <v>22</v>
       </c>
@@ -3751,30 +3817,32 @@
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
+      <c r="A68" s="24">
         <v>28</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23">
+      <c r="G68" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" s="24">
         <f>N68+N69+N69</f>
         <v>108.6</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I68" s="24">
         <f>O68+O69</f>
         <v>0.08</v>
       </c>
@@ -3800,17 +3868,17 @@
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
       <c r="J69" s="10">
         <v>14</v>
       </c>
@@ -3897,20 +3965,20 @@
       <c r="B74" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
       <c r="F74" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="G74" s="24" t="s">
+      <c r="G74" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3923,22 +3991,22 @@
       <c r="B75" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="20" t="s">
         <v>125</v>
       </c>
       <c r="G75" s="15">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14">
-        <f>I9+I10+I11+I12+I14+I15+I16+I23+I24+I26+I29+I32+I33+I34+I42+I43+I48+I50+I55+I25</f>
-        <v>2.8400000000000003</v>
+        <f>I9+I10+I11+I12+I14+I15+I16+I23+I24+I26+I29+I32+I33+I34+I42+I43+I48+I55+I25+I66+I44</f>
+        <v>2.9000000000000004</v>
       </c>
       <c r="P75"/>
     </row>
@@ -3947,22 +4015,22 @@
       <c r="B76" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
       <c r="F76" s="20" t="s">
         <v>128</v>
       </c>
       <c r="G76" s="15">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14">
-        <f>I10+I11+I12+I14+I15+I22+I26+I29+I32+I34+I42+I44+I48+I53+I55+I57+I16+I50+I33+I23</f>
-        <v>3.2699999999999996</v>
+        <f>I10+I11+I12+I14+I15+I22+I26+I29+I32+I34+I42+I44+I48+I53+I55+I57+I16+I50+I33</f>
+        <v>3.1399999999999997</v>
       </c>
       <c r="P76"/>
     </row>
@@ -3971,22 +4039,22 @@
       <c r="B77" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
       <c r="F77" s="20" t="s">
         <v>131</v>
       </c>
       <c r="G77" s="15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14">
-        <f>I29+I50+I66+I43</f>
-        <v>0.6100000000000001</v>
+        <f>I29+I50+I66</f>
+        <v>0.57000000000000006</v>
       </c>
       <c r="P77"/>
     </row>
@@ -4659,153 +4727,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
       <c r="P1"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
       <c r="P4"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="25" t="s">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="28" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="26"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
@@ -4830,7 +4898,7 @@
       <c r="O8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="27"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -4896,20 +4964,20 @@
       <c r="B13" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
